--- a/data/trans_orig/P59A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EEB2DB8E-5882-48EC-AF8C-9619848B618C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B814BBD-D623-45C5-A2B0-9CDF47A9EE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D3281140-EA7C-40EB-AD89-BF0117C463E9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{901E29D9-FFBC-43BF-BDA9-402FF2555D48}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>92,15%</t>
   </si>
   <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>95,34%</t>
   </si>
   <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,772 +140,808 @@
     <t>14,49%</t>
   </si>
   <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
     <t>11,89%</t>
   </si>
   <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
     <t>17,17%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
   </si>
   <si>
     <t>82,83%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
   </si>
   <si>
     <t>14,71%</t>
   </si>
   <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
   </si>
   <si>
     <t>85,29%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,18%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>27,59%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
   </si>
   <si>
     <t>86,79%</t>
-  </si>
-  <si>
-    <t>76,7%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF2457E-CD18-4795-A020-4C70E548196B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FC91F-48C9-445E-9AD9-E1CD20BABAD9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1936,13 +1972,13 @@
         <v>317657</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1957,13 +1993,13 @@
         <v>1111973</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1222</v>
@@ -1972,13 +2008,13 @@
         <v>1240885</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2319</v>
@@ -1987,13 +2023,13 @@
         <v>2352859</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>43</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,7 +2085,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF606C46-AC65-40D3-A3EE-7BDAD3127BD6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB42A2F5-4FAE-4FE2-8F50-EA8E94587996}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2085,7 +2121,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2192,13 +2228,13 @@
         <v>35205</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -2207,13 +2243,13 @@
         <v>34218</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -2222,13 +2258,13 @@
         <v>69423</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2279,13 @@
         <v>269310</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>427</v>
@@ -2258,13 +2294,13 @@
         <v>460033</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>677</v>
@@ -2273,13 +2309,13 @@
         <v>729343</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2347,13 +2383,13 @@
         <v>135108</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -2362,13 +2398,13 @@
         <v>125619</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>238</v>
@@ -2377,13 +2413,13 @@
         <v>260727</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2398,13 +2434,13 @@
         <v>726219</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>572</v>
@@ -2413,13 +2449,13 @@
         <v>602383</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1269</v>
@@ -2428,13 +2464,13 @@
         <v>1328602</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2502,13 +2538,13 @@
         <v>41270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2517,13 +2553,13 @@
         <v>42903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -2532,13 +2568,13 @@
         <v>84172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2553,13 +2589,13 @@
         <v>172556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -2800,7 +2836,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2819,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C5828D1-746F-4408-B0F3-534F8A831BEB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE537C0-61D9-4FCD-998D-16BC7EC1B939}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3283,13 +3319,13 @@
         <v>99764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3304,13 +3340,13 @@
         <v>194739</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -3319,13 +3355,13 @@
         <v>213277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>388</v>
@@ -3334,13 +3370,13 @@
         <v>408017</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3408,28 +3444,28 @@
         <v>254206</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
       </c>
       <c r="I13" s="7">
-        <v>224197</v>
+        <v>224198</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M13" s="7">
         <v>453</v>
@@ -3438,13 +3474,13 @@
         <v>478404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,13 +3495,13 @@
         <v>1197605</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H14" s="7">
         <v>1274</v>
@@ -3474,13 +3510,13 @@
         <v>1360483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M14" s="7">
         <v>2421</v>
@@ -3489,13 +3525,13 @@
         <v>2558088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,7 +3558,7 @@
         <v>1494</v>
       </c>
       <c r="I15" s="7">
-        <v>1584680</v>
+        <v>1584681</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3551,7 +3587,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3570,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424B86B8-F439-4CB4-99CF-034798F7F168}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE552665-53D5-422A-A24A-6FFAEDBA2C27}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3694,13 +3730,13 @@
         <v>22992</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>235</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3709,13 +3745,13 @@
         <v>24026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -3724,13 +3760,13 @@
         <v>47018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3745,13 +3781,13 @@
         <v>214967</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>45</v>
+        <v>243</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H5" s="7">
         <v>750</v>
@@ -3760,13 +3796,13 @@
         <v>430896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>1023</v>
@@ -3775,13 +3811,13 @@
         <v>645863</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3849,13 +3885,13 @@
         <v>182841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="H7" s="7">
         <v>177</v>
@@ -3864,13 +3900,13 @@
         <v>148931</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M7" s="7">
         <v>321</v>
@@ -3879,13 +3915,13 @@
         <v>331772</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3900,13 +3936,13 @@
         <v>928975</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>260</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="H8" s="7">
         <v>1083</v>
@@ -3915,28 +3951,28 @@
         <v>903068</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M8" s="7">
         <v>1817</v>
       </c>
       <c r="N8" s="7">
-        <v>1832042</v>
+        <v>1832043</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +4014,7 @@
         <v>2138</v>
       </c>
       <c r="N9" s="7">
-        <v>2163814</v>
+        <v>2163815</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4004,13 +4040,13 @@
         <v>57714</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -4019,13 +4055,13 @@
         <v>71806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>273</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="M10" s="7">
         <v>139</v>
@@ -4034,13 +4070,13 @@
         <v>129520</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4055,13 +4091,13 @@
         <v>240699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
@@ -4070,13 +4106,13 @@
         <v>287052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>282</v>
       </c>
       <c r="M11" s="7">
         <v>565</v>
@@ -4085,13 +4121,13 @@
         <v>527751</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +4195,13 @@
         <v>263548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>57</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>293</v>
@@ -4174,13 +4210,13 @@
         <v>244763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>509</v>
@@ -4189,10 +4225,10 @@
         <v>508310</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>71</v>
@@ -4210,13 +4246,13 @@
         <v>1384640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>66</v>
+        <v>294</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="H14" s="7">
         <v>2192</v>
@@ -4225,13 +4261,13 @@
         <v>1621016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="M14" s="7">
         <v>3405</v>
@@ -4240,13 +4276,13 @@
         <v>3005657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,7 +4338,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P59A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B814BBD-D623-45C5-A2B0-9CDF47A9EE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DC4C847-2911-4631-92AE-E81D225E354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{901E29D9-FFBC-43BF-BDA9-402FF2555D48}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FAA185E-CF52-4667-850F-9FD77AD00F25}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>7,85%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
   </si>
   <si>
     <t>4,66%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>92,15%</t>
   </si>
   <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>95,34%</t>
   </si>
   <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,10 +140,10 @@
     <t>14,49%</t>
   </si>
   <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
   </si>
   <si>
     <t>12,08%</t>
@@ -152,31 +152,31 @@
     <t>9,69%</t>
   </si>
   <si>
-    <t>14,85%</t>
+    <t>14,89%</t>
   </si>
   <si>
     <t>13,37%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
   </si>
   <si>
     <t>85,51%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>85,15%</t>
+    <t>85,11%</t>
   </si>
   <si>
     <t>90,31%</t>
@@ -185,10 +185,10 @@
     <t>86,63%</t>
   </si>
   <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,748 +197,754 @@
     <t>18,88%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,27%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>17,38%</t>
   </si>
   <si>
-    <t>12,79%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>77,93%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,49%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
   </si>
   <si>
     <t>23,33%</t>
   </si>
   <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>75,21%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
   </si>
   <si>
     <t>76,67%</t>
   </si>
   <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
+    <t>83,4%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
   </si>
   <si>
     <t>15,94%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
   </si>
   <si>
     <t>84,06%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,58%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>82,52%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2015 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
   </si>
   <si>
     <t>86,79%</t>
@@ -1353,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{609FC91F-48C9-445E-9AD9-E1CD20BABAD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BA79B2-0458-4124-BCDD-E896AB9F0018}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2104,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB42A2F5-4FAE-4FE2-8F50-EA8E94587996}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD99AF1F-8378-499F-B87D-13AF613CBC9B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2541,10 +2547,10 @@
         <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2553,13 +2559,13 @@
         <v>42903</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -2568,13 +2574,13 @@
         <v>84172</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2595,13 @@
         <v>172556</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -2604,13 +2610,13 @@
         <v>154548</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>307</v>
@@ -2619,13 +2625,13 @@
         <v>327105</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2699,13 @@
         <v>211582</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -2708,13 +2714,13 @@
         <v>202739</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>375</v>
@@ -2723,13 +2729,13 @@
         <v>414322</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2750,13 @@
         <v>1168086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1141</v>
@@ -2759,13 +2765,13 @@
         <v>1216965</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>2253</v>
@@ -2774,13 +2780,13 @@
         <v>2385050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EE537C0-61D9-4FCD-998D-16BC7EC1B939}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84511269-5922-4EE0-8C54-03D5F4876B6D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2872,7 +2878,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,13 +2985,13 @@
         <v>24533</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -2994,13 +3000,13 @@
         <v>23675</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -3009,13 +3015,13 @@
         <v>48208</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,13 +3036,13 @@
         <v>241248</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>328</v>
@@ -3045,13 +3051,13 @@
         <v>382170</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>573</v>
@@ -3060,13 +3066,13 @@
         <v>623418</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3140,13 @@
         <v>175924</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>153</v>
@@ -3149,13 +3155,13 @@
         <v>154507</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -3164,13 +3170,13 @@
         <v>330431</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3191,13 @@
         <v>761618</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>739</v>
@@ -3200,13 +3206,13 @@
         <v>765036</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>1460</v>
@@ -3215,13 +3221,13 @@
         <v>1526654</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3289,13 +3295,13 @@
         <v>53749</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3304,13 +3310,13 @@
         <v>46016</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -3319,13 +3325,13 @@
         <v>99764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,13 +3346,13 @@
         <v>194739</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -3355,13 +3361,13 @@
         <v>213277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M11" s="7">
         <v>388</v>
@@ -3370,13 +3376,13 @@
         <v>408017</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,28 +3450,28 @@
         <v>254206</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
       </c>
       <c r="I13" s="7">
-        <v>224198</v>
+        <v>224197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>453</v>
@@ -3474,13 +3480,13 @@
         <v>478404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3501,13 @@
         <v>1197605</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H14" s="7">
         <v>1274</v>
@@ -3510,13 +3516,13 @@
         <v>1360483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M14" s="7">
         <v>2421</v>
@@ -3525,13 +3531,13 @@
         <v>2558088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3558,7 +3564,7 @@
         <v>1494</v>
       </c>
       <c r="I15" s="7">
-        <v>1584681</v>
+        <v>1584680</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3606,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE552665-53D5-422A-A24A-6FFAEDBA2C27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8AB8B8-153B-4149-B1E3-D896B5CC4623}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3623,7 +3629,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,13 +3736,13 @@
         <v>22992</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3745,13 +3751,13 @@
         <v>24026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>236</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -3760,13 +3766,13 @@
         <v>47018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3787,13 @@
         <v>214967</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H5" s="7">
         <v>750</v>
@@ -3796,7 +3802,7 @@
         <v>430896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>246</v>
@@ -4076,7 +4082,7 @@
         <v>276</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,13 +4097,13 @@
         <v>240699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
@@ -4106,13 +4112,13 @@
         <v>287052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M11" s="7">
         <v>565</v>
@@ -4121,13 +4127,13 @@
         <v>527751</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,13 +4201,13 @@
         <v>263548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H13" s="7">
         <v>293</v>
@@ -4210,13 +4216,13 @@
         <v>244763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M13" s="7">
         <v>509</v>
@@ -4225,13 +4231,13 @@
         <v>508310</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4252,13 @@
         <v>1384640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H14" s="7">
         <v>2192</v>
@@ -4261,13 +4267,13 @@
         <v>1621016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M14" s="7">
         <v>3405</v>
@@ -4276,13 +4282,13 @@
         <v>3005657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>299</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P59A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DC4C847-2911-4631-92AE-E81D225E354B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1BD3E8-04BB-49C6-91EE-438D1FCC2435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9FAA185E-CF52-4667-850F-9FD77AD00F25}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{352E8C69-BEBD-4F7D-97C5-43D0B7146D9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -71,883 +71,841 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>84,18%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>80,35%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>84,76%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>77,93%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2012 (Tasa respuesta: 40,51%)</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>84,31%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2016 (Tasa respuesta: 44,02%)</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
   </si>
   <si>
     <t>14,47%</t>
   </si>
   <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>86,25%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
   </si>
   <si>
     <t>85,53%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>96,49%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>80,56%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,29%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
+    <t>86,87%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1317,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BA79B2-0458-4124-BCDD-E896AB9F0018}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61904D7-CDA0-482F-8932-EBF180676655}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1978,13 +1936,13 @@
         <v>317657</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1999,13 +1957,13 @@
         <v>1111973</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>1222</v>
@@ -2014,13 +1972,13 @@
         <v>1240885</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>2319</v>
@@ -2029,13 +1987,13 @@
         <v>2352859</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,7 +2049,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD99AF1F-8378-499F-B87D-13AF613CBC9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C5DF7-0F7A-425A-9C58-9FA5EEE0AD06}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2127,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2234,13 +2192,13 @@
         <v>35205</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>31</v>
@@ -2249,13 +2207,13 @@
         <v>34218</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>66</v>
@@ -2264,13 +2222,13 @@
         <v>69423</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2243,13 @@
         <v>269310</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>427</v>
@@ -2300,13 +2258,13 @@
         <v>460033</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>677</v>
@@ -2315,13 +2273,13 @@
         <v>729343</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,13 +2347,13 @@
         <v>135108</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>116</v>
@@ -2404,13 +2362,13 @@
         <v>125619</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>238</v>
@@ -2419,13 +2377,13 @@
         <v>260727</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2440,13 +2398,13 @@
         <v>726219</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>572</v>
@@ -2455,13 +2413,13 @@
         <v>602383</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>1269</v>
@@ -2470,13 +2428,13 @@
         <v>1328602</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2544,13 +2502,13 @@
         <v>41270</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -2559,13 +2517,13 @@
         <v>42903</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -2574,13 +2532,13 @@
         <v>84172</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2595,13 +2553,13 @@
         <v>172556</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>142</v>
@@ -2610,13 +2568,13 @@
         <v>154548</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>307</v>
@@ -2625,13 +2583,13 @@
         <v>327105</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2657,13 @@
         <v>211582</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H13" s="7">
         <v>183</v>
@@ -2714,13 +2672,13 @@
         <v>202739</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M13" s="7">
         <v>375</v>
@@ -2729,13 +2687,13 @@
         <v>414322</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2750,13 +2708,13 @@
         <v>1168086</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H14" s="7">
         <v>1141</v>
@@ -2765,13 +2723,13 @@
         <v>1216965</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="M14" s="7">
         <v>2253</v>
@@ -2780,13 +2738,13 @@
         <v>2385050</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,7 +2800,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84511269-5922-4EE0-8C54-03D5F4876B6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF0B8B7-AA94-42F8-8B72-E5F9B32E4C92}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2985,13 +2943,13 @@
         <v>24533</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -3000,13 +2958,13 @@
         <v>23675</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M4" s="7">
         <v>47</v>
@@ -3015,13 +2973,13 @@
         <v>48208</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3036,13 +2994,13 @@
         <v>241248</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H5" s="7">
         <v>328</v>
@@ -3051,13 +3009,13 @@
         <v>382170</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M5" s="7">
         <v>573</v>
@@ -3066,13 +3024,13 @@
         <v>623418</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,13 +3098,13 @@
         <v>175924</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H7" s="7">
         <v>153</v>
@@ -3155,13 +3113,13 @@
         <v>154507</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M7" s="7">
         <v>313</v>
@@ -3170,13 +3128,13 @@
         <v>330431</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,13 +3149,13 @@
         <v>761618</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H8" s="7">
         <v>739</v>
@@ -3206,13 +3164,13 @@
         <v>765036</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M8" s="7">
         <v>1460</v>
@@ -3221,13 +3179,13 @@
         <v>1526654</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3295,13 +3253,13 @@
         <v>53749</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3310,13 +3268,13 @@
         <v>46016</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M10" s="7">
         <v>93</v>
@@ -3325,13 +3283,13 @@
         <v>99764</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3346,13 +3304,13 @@
         <v>194739</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>207</v>
@@ -3361,13 +3319,13 @@
         <v>213277</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>388</v>
@@ -3376,13 +3334,13 @@
         <v>408017</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3450,13 +3408,13 @@
         <v>254206</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>220</v>
@@ -3465,13 +3423,13 @@
         <v>224197</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>453</v>
@@ -3480,13 +3438,13 @@
         <v>478404</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3501,13 +3459,13 @@
         <v>1197605</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>1274</v>
@@ -3516,13 +3474,13 @@
         <v>1360483</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>2421</v>
@@ -3531,13 +3489,13 @@
         <v>2558088</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3551,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E8AB8B8-153B-4149-B1E3-D896B5CC4623}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910CFAAD-AEE9-48D5-B6C3-710EFB16283F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3736,13 +3694,13 @@
         <v>22992</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>37</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
@@ -3751,13 +3709,13 @@
         <v>24026</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
@@ -3766,13 +3724,13 @@
         <v>47018</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3745,13 @@
         <v>214967</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>45</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H5" s="7">
         <v>750</v>
@@ -3802,13 +3760,13 @@
         <v>430896</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M5" s="7">
         <v>1023</v>
@@ -3817,13 +3775,13 @@
         <v>645863</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>249</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3891,13 +3849,13 @@
         <v>182841</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>177</v>
@@ -3906,13 +3864,13 @@
         <v>148931</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>321</v>
@@ -3921,13 +3879,13 @@
         <v>331772</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3942,13 +3900,13 @@
         <v>928975</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>260</v>
+        <v>140</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>1083</v>
@@ -3957,28 +3915,28 @@
         <v>903068</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>1817</v>
       </c>
       <c r="N8" s="7">
-        <v>1832043</v>
+        <v>1832042</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,7 +3978,7 @@
         <v>2138</v>
       </c>
       <c r="N9" s="7">
-        <v>2163815</v>
+        <v>2163814</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4046,13 +4004,13 @@
         <v>57714</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
@@ -4061,13 +4019,13 @@
         <v>71806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>273</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="M10" s="7">
         <v>139</v>
@@ -4076,13 +4034,13 @@
         <v>129520</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4055,13 @@
         <v>240699</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
@@ -4112,13 +4070,13 @@
         <v>287052</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>283</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>565</v>
@@ -4127,13 +4085,13 @@
         <v>527751</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4201,13 +4159,13 @@
         <v>263548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>287</v>
+        <v>127</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>289</v>
+        <v>57</v>
       </c>
       <c r="H13" s="7">
         <v>293</v>
@@ -4216,13 +4174,13 @@
         <v>244763</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>509</v>
@@ -4231,13 +4189,13 @@
         <v>508310</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>294</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4210,13 @@
         <v>1384640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>295</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>296</v>
+        <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="H14" s="7">
         <v>2192</v>
@@ -4267,13 +4225,13 @@
         <v>1621016</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>3405</v>
@@ -4282,13 +4240,13 @@
         <v>3005657</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>301</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4344,7 +4302,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P59A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P59A-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D1BD3E8-04BB-49C6-91EE-438D1FCC2435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC1B5AB0-F8EC-412B-BCC0-489C6721B610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{352E8C69-BEBD-4F7D-97C5-43D0B7146D9B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2E9CB463-5983-41F8-A472-7240B3699467}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población según si viven actualmente en pareja en 2007 (Tasa respuesta: 40,22%)</t>
   </si>
@@ -734,178 +734,208 @@
     <t>Población según si viven actualmente en pareja en 2023 (Tasa respuesta: 44,9%)</t>
   </si>
   <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>94,72%</t>
   </si>
   <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>17,18%</t>
   </si>
   <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>83,54%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
   </si>
   <si>
     <t>82,82%</t>
   </si>
   <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>83,45%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>86,96%</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61904D7-CDA0-482F-8932-EBF180676655}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C2DCA0-C919-4CDC-B2C6-85CC2255A312}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1984,7 +2014,7 @@
         <v>2319</v>
       </c>
       <c r="N14" s="7">
-        <v>2352859</v>
+        <v>2352858</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>43</v>
@@ -2035,7 +2065,7 @@
         <v>2619</v>
       </c>
       <c r="N15" s="7">
-        <v>2670516</v>
+        <v>2670515</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2068,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565C5DF7-0F7A-425A-9C58-9FA5EEE0AD06}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06FA6FE-D310-4FE5-9367-8D261821E0F0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2705,7 +2735,7 @@
         <v>1112</v>
       </c>
       <c r="D14" s="7">
-        <v>1168086</v>
+        <v>1168085</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>150</v>
@@ -2756,7 +2786,7 @@
         <v>1304</v>
       </c>
       <c r="D15" s="7">
-        <v>1379668</v>
+        <v>1379667</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2819,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF0B8B7-AA94-42F8-8B72-E5F9B32E4C92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49FAEE2F-5F54-4133-A246-640E169F6AEA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3420,7 +3450,7 @@
         <v>220</v>
       </c>
       <c r="I13" s="7">
-        <v>224197</v>
+        <v>224198</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>215</v>
@@ -3522,7 +3552,7 @@
         <v>1494</v>
       </c>
       <c r="I15" s="7">
-        <v>1584680</v>
+        <v>1584681</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3570,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910CFAAD-AEE9-48D5-B6C3-710EFB16283F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76AECA3E-A0A5-4732-9D57-A3B90B402C39}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3691,7 +3721,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>22992</v>
+        <v>23190</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>231</v>
@@ -3700,37 +3730,37 @@
         <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>37</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>24026</v>
+        <v>23172</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>49</v>
       </c>
       <c r="N4" s="7">
-        <v>47018</v>
+        <v>46361</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3742,46 +3772,46 @@
         <v>273</v>
       </c>
       <c r="D5" s="7">
-        <v>214967</v>
+        <v>206980</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>45</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>750</v>
       </c>
       <c r="I5" s="7">
-        <v>430896</v>
+        <v>387749</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1023</v>
       </c>
       <c r="N5" s="7">
-        <v>645863</v>
+        <v>594730</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3793,7 +3823,7 @@
         <v>294</v>
       </c>
       <c r="D6" s="7">
-        <v>237959</v>
+        <v>230170</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3808,7 +3838,7 @@
         <v>778</v>
       </c>
       <c r="I6" s="7">
-        <v>454922</v>
+        <v>410921</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3823,7 +3853,7 @@
         <v>1072</v>
       </c>
       <c r="N6" s="7">
-        <v>692881</v>
+        <v>641091</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3846,46 +3876,46 @@
         <v>144</v>
       </c>
       <c r="D7" s="7">
-        <v>182841</v>
+        <v>180144</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>177</v>
       </c>
       <c r="I7" s="7">
-        <v>148931</v>
+        <v>138938</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>321</v>
       </c>
       <c r="N7" s="7">
-        <v>331772</v>
+        <v>319082</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3897,46 +3927,46 @@
         <v>734</v>
       </c>
       <c r="D8" s="7">
-        <v>928975</v>
+        <v>923500</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>1083</v>
       </c>
       <c r="I8" s="7">
-        <v>903068</v>
+        <v>866802</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>1817</v>
       </c>
       <c r="N8" s="7">
-        <v>1832042</v>
+        <v>1790302</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3948,7 +3978,7 @@
         <v>878</v>
       </c>
       <c r="D9" s="7">
-        <v>1111816</v>
+        <v>1103644</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3963,7 +3993,7 @@
         <v>1260</v>
       </c>
       <c r="I9" s="7">
-        <v>1051999</v>
+        <v>1005740</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3978,7 +4008,7 @@
         <v>2138</v>
       </c>
       <c r="N9" s="7">
-        <v>2163814</v>
+        <v>2109384</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4001,46 +4031,46 @@
         <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>57714</v>
+        <v>55172</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>88</v>
       </c>
       <c r="I10" s="7">
-        <v>71806</v>
+        <v>66889</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>249</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
         <v>139</v>
       </c>
       <c r="N10" s="7">
-        <v>129520</v>
+        <v>122060</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4052,46 +4082,46 @@
         <v>206</v>
       </c>
       <c r="D11" s="7">
-        <v>240699</v>
+        <v>236850</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
         <v>359</v>
       </c>
       <c r="I11" s="7">
-        <v>287052</v>
+        <v>264684</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>565</v>
       </c>
       <c r="N11" s="7">
-        <v>527751</v>
+        <v>501536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4103,7 +4133,7 @@
         <v>257</v>
       </c>
       <c r="D12" s="7">
-        <v>298413</v>
+        <v>292022</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4118,7 +4148,7 @@
         <v>447</v>
       </c>
       <c r="I12" s="7">
-        <v>358858</v>
+        <v>331573</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4133,7 +4163,7 @@
         <v>704</v>
       </c>
       <c r="N12" s="7">
-        <v>657271</v>
+        <v>623596</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4156,13 +4186,13 @@
         <v>216</v>
       </c>
       <c r="D13" s="7">
-        <v>263548</v>
+        <v>258506</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>127</v>
+        <v>283</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>57</v>
@@ -4171,31 +4201,31 @@
         <v>293</v>
       </c>
       <c r="I13" s="7">
-        <v>244763</v>
+        <v>228998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M13" s="7">
         <v>509</v>
       </c>
       <c r="N13" s="7">
-        <v>508310</v>
+        <v>487504</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,46 +4237,46 @@
         <v>1213</v>
       </c>
       <c r="D14" s="7">
-        <v>1384640</v>
+        <v>1367330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>137</v>
+        <v>291</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="H14" s="7">
         <v>2192</v>
       </c>
       <c r="I14" s="7">
-        <v>1621016</v>
+        <v>1519237</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="M14" s="7">
         <v>3405</v>
       </c>
       <c r="N14" s="7">
-        <v>3005657</v>
+        <v>2886567</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4258,7 +4288,7 @@
         <v>1429</v>
       </c>
       <c r="D15" s="7">
-        <v>1648188</v>
+        <v>1625836</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4273,7 +4303,7 @@
         <v>2485</v>
       </c>
       <c r="I15" s="7">
-        <v>1865779</v>
+        <v>1748235</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4288,7 +4318,7 @@
         <v>3914</v>
       </c>
       <c r="N15" s="7">
-        <v>3513967</v>
+        <v>3374071</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
